--- a/Tag 3 Auswertung/Bradford_Cloevorlage.xlsx
+++ b/Tag 3 Auswertung/Bradford_Cloevorlage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\Tag 3 Auswertung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A712F-AF79-4C94-8DC1-8D93437AA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C358257D-C3AF-4E2A-980E-C50076ECB451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="2" r:id="rId1"/>
@@ -776,10 +776,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet0!$A$39:$A$46</c:f>
+              <c:f>Sheet0!$A$39:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -801,18 +801,15 @@
                 <c:pt idx="6">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet0!$C$39:$C$46</c:f>
+              <c:f>Sheet0!$C$39:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -833,9 +830,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.30293333530426025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36326666673024488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F32:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2288,7 +2282,7 @@
         <v>0.24803332984447479</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V25:V32" si="2">AVERAGE(H30:J30)</f>
+        <f t="shared" ref="V26:V32" si="2">AVERAGE(H30:J30)</f>
         <v>0.29040000836054486</v>
       </c>
     </row>
@@ -3151,8 +3145,8 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C80" s="6">
-        <f>AVERAGE(I74:I76)</f>
-        <v>11.208089387830663</v>
+        <f>AVERAGE(I75:I76)</f>
+        <v>13.033528863400351</v>
       </c>
       <c r="D80" t="s">
         <v>44</v>
@@ -3176,8 +3170,8 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C81" s="12">
-        <f>AVERAGE(J70,J72,J73)</f>
-        <v>5.5863035788070166</v>
+        <f>AVERAGE(J71:J72)</f>
+        <v>9.0429315449435848</v>
       </c>
       <c r="D81" t="s">
         <v>55</v>
@@ -3201,8 +3195,8 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C82" s="8">
-        <f>AVERAGE(J75:J77)</f>
-        <v>1.2840746105348273</v>
+        <f>J77</f>
+        <v>0.82756786133267302</v>
       </c>
       <c r="D82" t="s">
         <v>56</v>
@@ -3236,7 +3230,7 @@
       </c>
       <c r="C84">
         <f>C82/C81</f>
-        <v>0.22986122977746368</v>
+        <v>9.1515440233030751E-2</v>
       </c>
       <c r="E84" t="s">
         <v>64</v>
@@ -3256,7 +3250,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C89" s="6">
         <f>60*C82/C80</f>
-        <v>6.8740062615615596</v>
+        <v>3.8097181661518187</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>44</v>
@@ -3265,7 +3259,7 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C90" s="7">
         <f>60*C82/C81</f>
-        <v>13.791673786647822</v>
+        <v>5.4909264139818452</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>55</v>
